--- a/SDN acceptances/all_acceptances_deidentified.xlsx
+++ b/SDN acceptances/all_acceptances_deidentified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TooFastDan\Documents\MD_PhD Application\Python Analysis\SDN acceptances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6F426B-0F32-426C-B292-D24F4F12BC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE4F1D9-089E-4463-AA86-B5CCA4E39824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="404">
   <si>
     <t>schools</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Duke</t>
   </si>
   <si>
-    <t>Emory University</t>
+    <t>Emory</t>
   </si>
   <si>
     <t>Georgetown</t>
@@ -61,6 +61,9 @@
     <t>Harvard</t>
   </si>
   <si>
+    <t>Icahn Mt. Sinai</t>
+  </si>
+  <si>
     <t>Johns Hopkins</t>
   </si>
   <si>
@@ -70,13 +73,10 @@
     <t>Medical University of South Carolina</t>
   </si>
   <si>
-    <t>Mount Sinai</t>
-  </si>
-  <si>
     <t>New York University</t>
   </si>
   <si>
-    <t>Northwestern University</t>
+    <t>Northwestern</t>
   </si>
   <si>
     <t>Ohio State University</t>
@@ -88,49 +88,58 @@
     <t>Pennsylvania State University</t>
   </si>
   <si>
-    <t>Perelman School of Medicine</t>
-  </si>
-  <si>
-    <t>Pritzker School of Medicine - UChicago</t>
-  </si>
-  <si>
-    <t>Renaissance School of Medicine at Stony Brook University</t>
-  </si>
-  <si>
-    <t>Rutgers RWJMS/Princeton</t>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>SUNY Upstate</t>
   </si>
   <si>
     <t>Sanford</t>
   </si>
   <si>
-    <t>Sidney Kimmel Medical College - Thomas Jefferson University</t>
+    <t>Sidney Kimmel Medical College</t>
   </si>
   <si>
     <t>Stanford</t>
   </si>
   <si>
-    <t>State University of New York Upstate</t>
+    <t>Stony Brook</t>
   </si>
   <si>
     <t>Temple University</t>
   </si>
   <si>
-    <t>Texas A&amp;M University</t>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>UC Irvine</t>
+  </si>
+  <si>
+    <t>UC Los Angeles</t>
+  </si>
+  <si>
+    <t>UC San Diego</t>
+  </si>
+  <si>
+    <t>UC San Francisco</t>
+  </si>
+  <si>
+    <t>USC-Caltech</t>
+  </si>
+  <si>
+    <t>UT Medical Branch</t>
+  </si>
+  <si>
+    <t>UT San Antonio</t>
+  </si>
+  <si>
+    <t>UT Southwestern</t>
   </si>
   <si>
     <t>University of Alabama Birmingham</t>
   </si>
   <si>
-    <t>University of California - Irvine</t>
-  </si>
-  <si>
-    <t>University of California - Los Angeles</t>
-  </si>
-  <si>
-    <t>University of California - San Diego</t>
-  </si>
-  <si>
-    <t>University of California - San Francisco</t>
+    <t>University of Chicago</t>
   </si>
   <si>
     <t>University of Colorado</t>
@@ -142,7 +151,7 @@
     <t>University of Florida</t>
   </si>
   <si>
-    <t>University of Illinois at Chicago</t>
+    <t>University of Illinois - Chicago</t>
   </si>
   <si>
     <t>University of Iowa</t>
@@ -166,24 +175,15 @@
     <t>University of North Carolina</t>
   </si>
   <si>
+    <t>University of Pennsylvania</t>
+  </si>
+  <si>
     <t>University of Pittsburgh</t>
   </si>
   <si>
     <t>University of Rochester</t>
   </si>
   <si>
-    <t>University of Southern California/Caltech</t>
-  </si>
-  <si>
-    <t>University of Texas Medical Branch</t>
-  </si>
-  <si>
-    <t>University of Texas Southwestern</t>
-  </si>
-  <si>
-    <t>University of Texas at San Antonio</t>
-  </si>
-  <si>
     <t>University of Virginia</t>
   </si>
   <si>
@@ -205,157 +205,55 @@
     <t>Wayne State University</t>
   </si>
   <si>
-    <t>Weill Cornell/Tri-I</t>
+    <t>Weill Cornell Tri-I</t>
   </si>
   <si>
     <t>Yale</t>
   </si>
   <si>
-    <t>Emory</t>
-  </si>
-  <si>
-    <t>Harvard/MIT</t>
-  </si>
-  <si>
     <t>Hofstra/Northwell</t>
   </si>
   <si>
     <t>Indiana University</t>
   </si>
   <si>
-    <t>Johns Hopkins University</t>
-  </si>
-  <si>
     <t>Kaiser Permanente-Caltech</t>
   </si>
   <si>
     <t>Medical College of Wisconsin</t>
   </si>
   <si>
-    <t>Mount Sinai - Icahn</t>
-  </si>
-  <si>
     <t>NIH Oxford/Cambridge</t>
   </si>
   <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>SUNY Upstate</t>
-  </si>
-  <si>
-    <t>Stony Brook University</t>
-  </si>
-  <si>
     <t>Texas Tech University-Lubbock</t>
   </si>
   <si>
     <t>Tufts University</t>
   </si>
   <si>
-    <t>University of Alabama-Birmingham</t>
-  </si>
-  <si>
-    <t>University of Arizona - Phoenix</t>
-  </si>
-  <si>
-    <t>University of Arizona - Tucson</t>
-  </si>
-  <si>
-    <t>University of California Irvine</t>
-  </si>
-  <si>
-    <t>University of California Los Angeles</t>
-  </si>
-  <si>
-    <t>University of California San Diego</t>
-  </si>
-  <si>
-    <t>University of California San Francisco</t>
-  </si>
-  <si>
-    <t>University of Chicago</t>
+    <t>UT Houston</t>
+  </si>
+  <si>
+    <t>University of Arizona</t>
   </si>
   <si>
     <t>University of Cincinnati</t>
   </si>
   <si>
-    <t>University of Iowa â€“ Carver</t>
-  </si>
-  <si>
     <t>University of Kentucky</t>
   </si>
   <si>
     <t>University of Nebraska Medical Center</t>
   </si>
   <si>
-    <t>University of Pennsylvania</t>
-  </si>
-  <si>
-    <t>University of Pittsburgh â€“ Carnegie Mellon University</t>
-  </si>
-  <si>
-    <t>University of Texas - Houston/MD Anderson</t>
-  </si>
-  <si>
     <t>University of Toledo</t>
   </si>
   <si>
-    <t>University of Wisconsin - Madison</t>
-  </si>
-  <si>
-    <t>Vanderbilt University</t>
-  </si>
-  <si>
-    <t>Weill Cornell Tri-I</t>
-  </si>
-  <si>
-    <t>Einstein</t>
-  </si>
-  <si>
-    <t>Icahn Mt. Sinai</t>
-  </si>
-  <si>
     <t>Medical College of Georgia</t>
   </si>
   <si>
-    <t>OHSU</t>
-  </si>
-  <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>Rutgers New Jersey Medical School</t>
-  </si>
-  <si>
-    <t>Rutgers Robert Wood Johnson</t>
-  </si>
-  <si>
-    <t>SKMC</t>
-  </si>
-  <si>
-    <t>Stony Brook</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>USC-Caltech</t>
-  </si>
-  <si>
-    <t>USUHS</t>
-  </si>
-  <si>
-    <t>UT Houston/MD Anderson</t>
-  </si>
-  <si>
-    <t>UT San Antonio</t>
-  </si>
-  <si>
-    <t>University of Alabama - Birmingham</t>
-  </si>
-  <si>
-    <t>University of Illinois - Chicago</t>
+    <t>Uniformed Services University of the Health Sciences</t>
   </si>
   <si>
     <t>University of Kansas</t>
@@ -364,9 +262,6 @@
     <t>University of Utah</t>
   </si>
   <si>
-    <t>Virginia Commonwealth</t>
-  </si>
-  <si>
     <t>I:1/8,A:4/29</t>
   </si>
   <si>
@@ -439,6 +334,15 @@
     <t>I:12/X,A:3/2</t>
   </si>
   <si>
+    <t>I:9/X,A:2/1</t>
+  </si>
+  <si>
+    <t>I:12/X,A:2/1</t>
+  </si>
+  <si>
+    <t>I:12/14,A:2/1</t>
+  </si>
+  <si>
     <t>I:1/X,A:3/9</t>
   </si>
   <si>
@@ -460,15 +364,6 @@
     <t>I:11/20,A:11/30</t>
   </si>
   <si>
-    <t>I:9/X,A:2/1</t>
-  </si>
-  <si>
-    <t>I:12/X,A:2/1</t>
-  </si>
-  <si>
-    <t>I:12/14,A:2/1</t>
-  </si>
-  <si>
     <t>I:10/26,A:12/18</t>
   </si>
   <si>
@@ -517,144 +412,162 @@
     <t>I:12/6,A:1/13</t>
   </si>
   <si>
+    <t>I:10/X,A:11/X</t>
+  </si>
+  <si>
+    <t>I:10/X,A:2/X</t>
+  </si>
+  <si>
+    <t>I:12/3,A:1/7</t>
+  </si>
+  <si>
+    <t>I:1/19,A:2/1</t>
+  </si>
+  <si>
+    <t>I:12/2,A:12/22</t>
+  </si>
+  <si>
+    <t>I:1/X,A:3/8</t>
+  </si>
+  <si>
+    <t>I:11/X,A:3/18</t>
+  </si>
+  <si>
+    <t>I:12/X,A:4/26</t>
+  </si>
+  <si>
+    <t>I:11/X,A:1/7</t>
+  </si>
+  <si>
+    <t>I:11/5,A:12/8</t>
+  </si>
+  <si>
+    <t>I:9/30,A:12/17</t>
+  </si>
+  <si>
+    <t>I:11/12,A:12/4</t>
+  </si>
+  <si>
+    <t>I:10/X,A:1/22</t>
+  </si>
+  <si>
+    <t>I:12/X,A:1/22</t>
+  </si>
+  <si>
+    <t>I:1/15,A:4/28</t>
+  </si>
+  <si>
+    <t>I:1/X,A:2/25</t>
+  </si>
+  <si>
+    <t>I:1/20,A:2/26</t>
+  </si>
+  <si>
+    <t>I:9/17,A:12/4</t>
+  </si>
+  <si>
+    <t>I:11/13,A:12/23</t>
+  </si>
+  <si>
+    <t>I:9/3,A:10/20</t>
+  </si>
+  <si>
+    <t>I:12/12,A:12/23</t>
+  </si>
+  <si>
+    <t>I:1/22,A:4/27</t>
+  </si>
+  <si>
+    <t>I:11/6,A:2/17</t>
+  </si>
+  <si>
+    <t>I:9/9,A:11/6</t>
+  </si>
+  <si>
+    <t>I:10/6,A:11/6</t>
+  </si>
+  <si>
+    <t>I:1/13,A:2/8</t>
+  </si>
+  <si>
+    <t>I:11/4,A:2/9</t>
+  </si>
+  <si>
+    <t>I:11/10,A:12/21</t>
+  </si>
+  <si>
+    <t>I:12/X,A:5/3</t>
+  </si>
+  <si>
+    <t>I:12/16,A:1/27</t>
+  </si>
+  <si>
+    <t>I:1/5,A:4/15</t>
+  </si>
+  <si>
+    <t>I:12/4,A:1/28</t>
+  </si>
+  <si>
+    <t>I:9/24,A:10/21</t>
+  </si>
+  <si>
+    <t>I:2/22,A:3/12</t>
+  </si>
+  <si>
+    <t>I:10/X,A:11/6</t>
+  </si>
+  <si>
+    <t>I:10/9,A:11/6</t>
+  </si>
+  <si>
+    <t>I:10/X,A:11/7</t>
+  </si>
+  <si>
+    <t>I:11/11,A:12/22</t>
+  </si>
+  <si>
+    <t>I:11/X,A:1/21</t>
+  </si>
+  <si>
+    <t>I:12/7,A:1/12</t>
+  </si>
+  <si>
+    <t>I:1/12,A:2/4</t>
+  </si>
+  <si>
+    <t>I:1/12,A:2/23</t>
+  </si>
+  <si>
+    <t>I:11/17,A:12/11</t>
+  </si>
+  <si>
+    <t>I:1/12,A:1/15</t>
+  </si>
+  <si>
+    <t>I:1/21,A:2/12</t>
+  </si>
+  <si>
+    <t>I:10/19,A:12/21</t>
+  </si>
+  <si>
+    <t>I:10/3,A:10/27</t>
+  </si>
+  <si>
+    <t>I:1/21,A:2/14</t>
+  </si>
+  <si>
+    <t>I:10/29,A:12/11</t>
+  </si>
+  <si>
+    <t>I:1/14,A:2/9</t>
+  </si>
+  <si>
+    <t>I:1/10,A:2/9</t>
+  </si>
+  <si>
     <t>I:10/8,A:3/3</t>
   </si>
   <si>
-    <t>I:11/10,A:12/21</t>
-  </si>
-  <si>
-    <t>I:12/X,A:5/3</t>
-  </si>
-  <si>
-    <t>I:11/X,A:1/7</t>
-  </si>
-  <si>
-    <t>I:10/X,A:11/X</t>
-  </si>
-  <si>
-    <t>I:10/X,A:2/X</t>
-  </si>
-  <si>
-    <t>I:1/19,A:2/1</t>
-  </si>
-  <si>
-    <t>I:12/2,A:12/22</t>
-  </si>
-  <si>
-    <t>I:1/X,A:3/8</t>
-  </si>
-  <si>
-    <t>I:11/X,A:3/18</t>
-  </si>
-  <si>
-    <t>I:12/X,A:4/26</t>
-  </si>
-  <si>
-    <t>I:12/3,A:1/7</t>
-  </si>
-  <si>
-    <t>I:11/5,A:12/8</t>
-  </si>
-  <si>
-    <t>I:9/30,A:12/17</t>
-  </si>
-  <si>
-    <t>I:9/9,A:11/6</t>
-  </si>
-  <si>
-    <t>I:10/6,A:11/6</t>
-  </si>
-  <si>
-    <t>I:1/13,A:2/8</t>
-  </si>
-  <si>
-    <t>I:11/4,A:2/9</t>
-  </si>
-  <si>
-    <t>I:11/12,A:12/4</t>
-  </si>
-  <si>
-    <t>I:10/X,A:1/22</t>
-  </si>
-  <si>
-    <t>I:12/X,A:1/22</t>
-  </si>
-  <si>
-    <t>I:1/15,A:4/28</t>
-  </si>
-  <si>
-    <t>I:1/X,A:2/25</t>
-  </si>
-  <si>
-    <t>I:1/20,A:2/26</t>
-  </si>
-  <si>
-    <t>I:12/16,A:1/27</t>
-  </si>
-  <si>
-    <t>I:1/5,A:4/15</t>
-  </si>
-  <si>
-    <t>I:12/4,A:1/28</t>
-  </si>
-  <si>
-    <t>I:9/24,A:10/21</t>
-  </si>
-  <si>
-    <t>I:2/22,A:3/12</t>
-  </si>
-  <si>
-    <t>I:10/X,A:11/6</t>
-  </si>
-  <si>
-    <t>I:10/9,A:11/6</t>
-  </si>
-  <si>
-    <t>I:10/X,A:11/7</t>
-  </si>
-  <si>
-    <t>I:11/11,A:12/22</t>
-  </si>
-  <si>
-    <t>I:11/X,A:1/21</t>
-  </si>
-  <si>
-    <t>I:12/7,A:1/12</t>
-  </si>
-  <si>
-    <t>I:1/12,A:2/4</t>
-  </si>
-  <si>
-    <t>I:1/12,A:2/23</t>
-  </si>
-  <si>
-    <t>I:11/17,A:12/11</t>
-  </si>
-  <si>
-    <t>I:1/12,A:1/15</t>
-  </si>
-  <si>
-    <t>I:1/21,A:2/12</t>
-  </si>
-  <si>
-    <t>I:10/19,A:12/21</t>
-  </si>
-  <si>
-    <t>I:10/3,A:10/27</t>
-  </si>
-  <si>
-    <t>I:1/21,A:2/14</t>
-  </si>
-  <si>
-    <t>I:10/29,A:12/11</t>
-  </si>
-  <si>
-    <t>I:1/14,A:2/9</t>
-  </si>
-  <si>
-    <t>I:1/10,A:2/9</t>
-  </si>
-  <si>
     <t>I:9/21,A:10/22</t>
   </si>
   <si>
@@ -676,24 +589,6 @@
     <t>I:10/29,A:12/7</t>
   </si>
   <si>
-    <t>I:9/17,A:12/4</t>
-  </si>
-  <si>
-    <t>I:11/13,A:12/23</t>
-  </si>
-  <si>
-    <t>I:11/6,A:2/17</t>
-  </si>
-  <si>
-    <t>I:9/3,A:10/20</t>
-  </si>
-  <si>
-    <t>I:12/12,A:12/23</t>
-  </si>
-  <si>
-    <t>I:1/22,A:4/27</t>
-  </si>
-  <si>
     <t>I:9/28,A:10/21</t>
   </si>
   <si>
@@ -814,6 +709,12 @@
     <t>I:12/4,A:1/23</t>
   </si>
   <si>
+    <t>I:11/18,A:1/10</t>
+  </si>
+  <si>
+    <t>I:12/3,A:1/13</t>
+  </si>
+  <si>
     <t>I:11/13,A:2/6</t>
   </si>
   <si>
@@ -829,12 +730,6 @@
     <t>I:1/16,A:1/30</t>
   </si>
   <si>
-    <t>I:11/18,A:1/10</t>
-  </si>
-  <si>
-    <t>I:12/3,A:1/13</t>
-  </si>
-  <si>
     <t>I:2/12,A:2/14</t>
   </si>
   <si>
@@ -895,33 +790,36 @@
     <t>I:12/X,A:5/6</t>
   </si>
   <si>
+    <t>I:10/7,A:11/14</t>
+  </si>
+  <si>
+    <t>I:12/5,A:1/24</t>
+  </si>
+  <si>
+    <t>I:10/10,A:1/24</t>
+  </si>
+  <si>
+    <t>I:10/X,A:2/25</t>
+  </si>
+  <si>
+    <t>I:11/X,A:2/25</t>
+  </si>
+  <si>
+    <t>I:11/22,A:4/29</t>
+  </si>
+  <si>
+    <t>I:10/25,A:2/4</t>
+  </si>
+  <si>
     <t>I:12/6,A:1/27</t>
   </si>
   <si>
+    <t>I:10/9,A:11/20</t>
+  </si>
+  <si>
     <t>I:11/X,A:12/X</t>
   </si>
   <si>
-    <t>I:10/9,A:11/20</t>
-  </si>
-  <si>
-    <t>I:10/7,A:11/14</t>
-  </si>
-  <si>
-    <t>I:12/5,A:1/24</t>
-  </si>
-  <si>
-    <t>I:10/10,A:1/24</t>
-  </si>
-  <si>
-    <t>I:10/X,A:2/25</t>
-  </si>
-  <si>
-    <t>I:11/X,A:2/25</t>
-  </si>
-  <si>
-    <t>I:11/22,A:4/29</t>
-  </si>
-  <si>
     <t>I:9/X,A:10/15</t>
   </si>
   <si>
@@ -1006,9 +904,6 @@
     <t>I:10/9,A:11/8</t>
   </si>
   <si>
-    <t>I:10/25,A:2/4</t>
-  </si>
-  <si>
     <t>I:9/6,A:11/25</t>
   </si>
   <si>
@@ -1132,15 +1027,15 @@
     <t>I:1/X,A:2/14</t>
   </si>
   <si>
+    <t>I:1/X,A:3/6</t>
+  </si>
+  <si>
+    <t>I:1/X,A:5/8</t>
+  </si>
+  <si>
     <t>I:11/X,A:5/12</t>
   </si>
   <si>
-    <t>I:1/X,A:3/6</t>
-  </si>
-  <si>
-    <t>I:1/X,A:5/8</t>
-  </si>
-  <si>
     <t>I:9/X,A:10/27</t>
   </si>
   <si>
@@ -1150,15 +1045,15 @@
     <t>I:9/X,A:10/X</t>
   </si>
   <si>
+    <t>I:11/12,A:12/7</t>
+  </si>
+  <si>
+    <t>I:11/X,A:12/7</t>
+  </si>
+  <si>
     <t>I:12/X,A:1/11</t>
   </si>
   <si>
-    <t>I:11/12,A:12/7</t>
-  </si>
-  <si>
-    <t>I:11/X,A:12/7</t>
-  </si>
-  <si>
     <t>I:1/X,A:2/15</t>
   </si>
   <si>
@@ -1174,18 +1069,39 @@
     <t>I:9/5,A:10/15</t>
   </si>
   <si>
+    <t>I:10/X,A:11/15</t>
+  </si>
+  <si>
+    <t>I:11/X,A:12/14</t>
+  </si>
+  <si>
+    <t>I:11/X,A:2/21</t>
+  </si>
+  <si>
+    <t>I:1/X,A:2/9</t>
+  </si>
+  <si>
+    <t>I:1/X,A:2/11</t>
+  </si>
+  <si>
     <t>I:10/X,A:11/4</t>
   </si>
   <si>
+    <t>I:1/X,A:2/4</t>
+  </si>
+  <si>
+    <t>I:9/X,A:10/22</t>
+  </si>
+  <si>
+    <t>I:10/X,A:2/6</t>
+  </si>
+  <si>
+    <t>I:9/X,A:2/6</t>
+  </si>
+  <si>
     <t>I:10/X,A:11/29</t>
   </si>
   <si>
-    <t>I:1/X,A:2/4</t>
-  </si>
-  <si>
-    <t>I:9/X,A:10/22</t>
-  </si>
-  <si>
     <t>I:11/X,A:12/12</t>
   </si>
   <si>
@@ -1198,21 +1114,6 @@
     <t>I:10/3,A:2/12</t>
   </si>
   <si>
-    <t>I:10/X,A:11/15</t>
-  </si>
-  <si>
-    <t>I:11/X,A:12/14</t>
-  </si>
-  <si>
-    <t>I:11/X,A:2/21</t>
-  </si>
-  <si>
-    <t>I:1/X,A:2/9</t>
-  </si>
-  <si>
-    <t>I:1/X,A:2/11</t>
-  </si>
-  <si>
     <t>I:10/X,A:11/13</t>
   </si>
   <si>
@@ -1268,12 +1169,6 @@
   </si>
   <si>
     <t>I:9/X,A:10/18</t>
-  </si>
-  <si>
-    <t>I:10/X,A:2/6</t>
-  </si>
-  <si>
-    <t>I:9/X,A:2/6</t>
   </si>
   <si>
     <t>I:10/X,A:11/21</t>
@@ -1745,15 +1640,15 @@
   <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,13 +1670,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2">
         <v>44315</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,13 +1684,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2">
         <v>44189</v>
       </c>
       <c r="D3" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,13 +1698,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2">
         <v>44176</v>
       </c>
       <c r="D4" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,13 +1712,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2">
         <v>44176</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,13 +1726,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2">
         <v>44176</v>
       </c>
       <c r="D6" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,13 +1740,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2">
         <v>44319</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1859,13 +1754,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2">
         <v>44183</v>
       </c>
       <c r="D8" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1873,13 +1768,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2">
         <v>44183</v>
       </c>
       <c r="D9" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,13 +1782,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2">
         <v>44183</v>
       </c>
       <c r="D10" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,13 +1796,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2">
         <v>44224</v>
       </c>
       <c r="D11" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,13 +1810,13 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2">
         <v>44225</v>
       </c>
       <c r="D12" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,13 +1824,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2">
         <v>44251</v>
       </c>
       <c r="D13" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,13 +1838,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2">
         <v>44251</v>
       </c>
       <c r="D14" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,13 +1852,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2">
         <v>44251</v>
       </c>
       <c r="D15" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,13 +1866,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2">
         <v>44250</v>
       </c>
       <c r="D16" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,13 +1880,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2">
         <v>44250</v>
       </c>
       <c r="D17" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,13 +1894,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2">
         <v>44250</v>
       </c>
       <c r="D18" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,13 +1908,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C19" s="2">
         <v>44156</v>
       </c>
       <c r="D19" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2027,13 +1922,13 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2">
         <v>44156</v>
       </c>
       <c r="D20" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,13 +1936,13 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2">
         <v>44220</v>
       </c>
       <c r="D21" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,13 +1950,13 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2">
         <v>44220</v>
       </c>
       <c r="D22" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,13 +1964,13 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2">
         <v>44260</v>
       </c>
       <c r="D23" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,13 +1978,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2">
         <v>44270</v>
       </c>
       <c r="D24" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,13 +1992,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2">
         <v>44257</v>
       </c>
       <c r="D25" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,13 +2006,13 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2">
         <v>44257</v>
       </c>
       <c r="D26" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,13 +2020,13 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2">
         <v>44257</v>
       </c>
       <c r="D27" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,13 +2034,13 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2">
-        <v>44264</v>
+        <v>44228</v>
       </c>
       <c r="D28" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2153,10 +2048,13 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>105</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44228</v>
       </c>
       <c r="D29" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2164,10 +2062,13 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>106</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44228</v>
       </c>
       <c r="D30" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2175,13 +2076,13 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C31" s="2">
-        <v>44233</v>
+        <v>44264</v>
       </c>
       <c r="D31" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2189,27 +2090,21 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="2">
-        <v>44316</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="2">
-        <v>44154</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2217,27 +2112,27 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C34" s="2">
-        <v>44165</v>
+        <v>44233</v>
       </c>
       <c r="D34" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C35" s="2">
-        <v>44228</v>
+        <v>44316</v>
       </c>
       <c r="D35" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2245,13 +2140,13 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C36" s="2">
-        <v>44228</v>
+        <v>44154</v>
       </c>
       <c r="D36" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2259,13 +2154,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C37" s="2">
-        <v>44228</v>
+        <v>44165</v>
       </c>
       <c r="D37" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2273,13 +2168,13 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C38" s="2">
         <v>44183</v>
       </c>
       <c r="D38" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2287,13 +2182,13 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C39" s="2">
         <v>44183</v>
       </c>
       <c r="D39" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2301,13 +2196,13 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C40" s="2">
         <v>44183</v>
       </c>
       <c r="D40" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2315,13 +2210,13 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C41" s="2">
         <v>44183</v>
       </c>
       <c r="D41" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2329,13 +2224,13 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C42" s="2">
         <v>44229</v>
       </c>
       <c r="D42" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2343,13 +2238,13 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C43" s="2">
         <v>44229</v>
       </c>
       <c r="D43" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2357,13 +2252,13 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C44" s="2">
         <v>44165</v>
       </c>
       <c r="D44" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2371,13 +2266,13 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C45" s="2">
         <v>44165</v>
       </c>
       <c r="D45" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2385,13 +2280,13 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C46" s="2">
         <v>44166</v>
       </c>
       <c r="D46" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2399,13 +2294,13 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C47" s="2">
         <v>44207</v>
       </c>
       <c r="D47" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,13 +2308,13 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C48" s="2">
         <v>44207</v>
       </c>
       <c r="D48" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2427,13 +2322,13 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C49" s="2">
         <v>44238</v>
       </c>
       <c r="D49" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2441,13 +2336,13 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C50" s="2">
         <v>44319</v>
       </c>
       <c r="D50" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2455,13 +2350,13 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C51" s="2">
         <v>44138</v>
       </c>
       <c r="D51" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,13 +2364,13 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C52" s="2">
         <v>44158</v>
       </c>
       <c r="D52" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2483,13 +2378,13 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C53" s="2">
         <v>44202</v>
       </c>
       <c r="D53" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2497,13 +2392,13 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C54" s="2">
         <v>44153</v>
       </c>
       <c r="D54" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2511,13 +2406,13 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C55" s="2">
         <v>44209</v>
       </c>
       <c r="D55" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2525,27 +2420,21 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="2">
-        <v>44258</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="2">
-        <v>44186</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2553,13 +2442,13 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="C58" s="2">
-        <v>44319</v>
+        <v>44203</v>
       </c>
       <c r="D58" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2567,13 +2456,13 @@
         <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C59" s="2">
-        <v>44203</v>
+        <v>44228</v>
       </c>
       <c r="D59" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,21 +2470,27 @@
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>134</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44187</v>
       </c>
       <c r="D60" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>135</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44263</v>
       </c>
       <c r="D61" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2603,41 +2498,41 @@
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C62" s="2">
-        <v>44228</v>
+        <v>44273</v>
       </c>
       <c r="D62" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C63" s="2">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="D63" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C64" s="2">
-        <v>44263</v>
+        <v>44203</v>
       </c>
       <c r="D64" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,13 +2540,13 @@
         <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="C65" s="2">
-        <v>44273</v>
+        <v>44173</v>
       </c>
       <c r="D65" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,13 +2554,13 @@
         <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="C66" s="2">
-        <v>44312</v>
+        <v>44173</v>
       </c>
       <c r="D66" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2673,13 +2568,13 @@
         <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2">
-        <v>44203</v>
+        <v>44182</v>
       </c>
       <c r="D67" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2687,27 +2582,27 @@
         <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="C68" s="2">
-        <v>44173</v>
+        <v>44169</v>
       </c>
       <c r="D68" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C69" s="2">
-        <v>44173</v>
+        <v>44218</v>
       </c>
       <c r="D69" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,13 +2610,13 @@
         <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="C70" s="2">
-        <v>44182</v>
+        <v>44218</v>
       </c>
       <c r="D70" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2729,181 +2624,181 @@
         <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="C71" s="2">
-        <v>44141</v>
+        <v>44314</v>
       </c>
       <c r="D71" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C72" s="2">
-        <v>44141</v>
+        <v>44252</v>
       </c>
       <c r="D72" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="C73" s="2">
-        <v>44141</v>
+        <v>44253</v>
       </c>
       <c r="D73" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C74" s="2">
-        <v>44235</v>
+        <v>44169</v>
       </c>
       <c r="D74" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="C75" s="2">
-        <v>44236</v>
+        <v>44188</v>
       </c>
       <c r="D75" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C76" s="2">
-        <v>44169</v>
+        <v>44124</v>
       </c>
       <c r="D76" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C77" s="2">
-        <v>44218</v>
+        <v>44124</v>
       </c>
       <c r="D77" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C78" s="2">
-        <v>44218</v>
+        <v>44188</v>
       </c>
       <c r="D78" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C79" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="D79" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C80" s="2">
-        <v>44252</v>
+        <v>44244</v>
       </c>
       <c r="D80" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C81" s="2">
-        <v>44253</v>
+        <v>44141</v>
       </c>
       <c r="D81" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C82" s="2">
-        <v>44223</v>
+        <v>44141</v>
       </c>
       <c r="D82" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="C83" s="2">
-        <v>44301</v>
+        <v>44141</v>
       </c>
       <c r="D83" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2911,83 +2806,83 @@
         <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="C84" s="2">
-        <v>44224</v>
+        <v>44235</v>
       </c>
       <c r="D84" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="C85" s="2">
-        <v>44125</v>
+        <v>44236</v>
       </c>
       <c r="D85" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C86" s="2">
-        <v>44267</v>
+        <v>44186</v>
       </c>
       <c r="D86" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="C87" s="2">
-        <v>44141</v>
+        <v>44319</v>
       </c>
       <c r="D87" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C88" s="2">
-        <v>44141</v>
+        <v>44223</v>
       </c>
       <c r="D88" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C89" s="2">
-        <v>44141</v>
+        <v>44301</v>
       </c>
       <c r="D89" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,139 +2890,139 @@
         <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="C90" s="2">
-        <v>44142</v>
+        <v>44224</v>
       </c>
       <c r="D90" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B91" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C91" s="2">
-        <v>44187</v>
+        <v>44125</v>
       </c>
       <c r="D91" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C92" s="2">
-        <v>44217</v>
+        <v>44267</v>
       </c>
       <c r="D92" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C93" s="2">
-        <v>44208</v>
+        <v>44141</v>
       </c>
       <c r="D93" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C94" s="2">
-        <v>44231</v>
+        <v>44141</v>
       </c>
       <c r="D94" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C95" s="2">
-        <v>44250</v>
+        <v>44141</v>
       </c>
       <c r="D95" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="C96" s="2">
-        <v>44176</v>
+        <v>44142</v>
       </c>
       <c r="D96" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B97" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C97" s="2">
-        <v>44211</v>
+        <v>44187</v>
       </c>
       <c r="D97" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="C98" s="2">
-        <v>44239</v>
+        <v>44217</v>
       </c>
       <c r="D98" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="C99" s="2">
-        <v>44186</v>
+        <v>44208</v>
       </c>
       <c r="D99" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3135,13 +3030,13 @@
         <v>45</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C100" s="2">
-        <v>44131</v>
+        <v>44231</v>
       </c>
       <c r="D100" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3149,27 +3044,27 @@
         <v>45</v>
       </c>
       <c r="B101" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="C101" s="2">
-        <v>44241</v>
+        <v>44250</v>
       </c>
       <c r="D101" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B102" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="C102" s="2">
-        <v>44241</v>
+        <v>44176</v>
       </c>
       <c r="D102" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3177,13 +3072,13 @@
         <v>46</v>
       </c>
       <c r="B103" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="C103" s="2">
-        <v>44176</v>
+        <v>44211</v>
       </c>
       <c r="D103" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3191,55 +3086,55 @@
         <v>46</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C104" s="2">
-        <v>44176</v>
+        <v>44239</v>
       </c>
       <c r="D104" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="C105" s="2">
-        <v>44236</v>
+        <v>44186</v>
       </c>
       <c r="D105" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="C106" s="2">
-        <v>44236</v>
+        <v>44131</v>
       </c>
       <c r="D106" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="C107" s="2">
-        <v>44236</v>
+        <v>44241</v>
       </c>
       <c r="D107" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,125 +3142,125 @@
         <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="C108" s="2">
-        <v>44126</v>
+        <v>44241</v>
       </c>
       <c r="D108" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c r="C109" s="2">
-        <v>44168</v>
+        <v>44176</v>
       </c>
       <c r="D109" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B110" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="C110" s="2">
-        <v>44169</v>
+        <v>44176</v>
       </c>
       <c r="D110" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B111" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="C111" s="2">
-        <v>44210</v>
+        <v>44236</v>
       </c>
       <c r="D111" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="C112" s="2">
-        <v>44217</v>
+        <v>44236</v>
       </c>
       <c r="D112" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="C113" s="2">
-        <v>44166</v>
+        <v>44236</v>
       </c>
       <c r="D113" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B114" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="C114" s="2">
-        <v>44172</v>
+        <v>44258</v>
       </c>
       <c r="D114" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B115" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="C115" s="2">
-        <v>44169</v>
+        <v>44126</v>
       </c>
       <c r="D115" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B116" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="C116" s="2">
-        <v>44188</v>
+        <v>44168</v>
       </c>
       <c r="D116" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3373,41 +3268,41 @@
         <v>52</v>
       </c>
       <c r="B117" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="C117" s="2">
-        <v>44244</v>
+        <v>44169</v>
       </c>
       <c r="D117" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="C118" s="2">
-        <v>44124</v>
+        <v>44210</v>
       </c>
       <c r="D118" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B119" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="C119" s="2">
-        <v>44124</v>
+        <v>44217</v>
       </c>
       <c r="D119" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,13 +3310,13 @@
         <v>53</v>
       </c>
       <c r="B120" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="C120" s="2">
-        <v>44188</v>
+        <v>44166</v>
       </c>
       <c r="D120" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3429,13 +3324,13 @@
         <v>53</v>
       </c>
       <c r="B121" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="C121" s="2">
-        <v>44313</v>
+        <v>44172</v>
       </c>
       <c r="D121" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,13 +3338,13 @@
         <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="C122" s="2">
         <v>44125</v>
       </c>
       <c r="D122" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,13 +3352,13 @@
         <v>55</v>
       </c>
       <c r="B123" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="C123" s="2">
         <v>44207</v>
       </c>
       <c r="D123" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3471,13 +3366,13 @@
         <v>55</v>
       </c>
       <c r="B124" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C124" s="2">
         <v>44228</v>
       </c>
       <c r="D124" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,13 +3380,13 @@
         <v>55</v>
       </c>
       <c r="B125" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C125" s="2">
         <v>44228</v>
       </c>
       <c r="D125" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3499,13 +3394,13 @@
         <v>55</v>
       </c>
       <c r="B126" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="C126" s="2">
         <v>44228</v>
       </c>
       <c r="D126" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,13 +3408,13 @@
         <v>56</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="C127" s="2">
         <v>44174</v>
       </c>
       <c r="D127" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,13 +3422,13 @@
         <v>56</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="C128" s="2">
         <v>44174</v>
       </c>
       <c r="D128" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3541,13 +3436,13 @@
         <v>56</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="C129" s="2">
         <v>44223</v>
       </c>
       <c r="D129" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3555,13 +3450,13 @@
         <v>57</v>
       </c>
       <c r="B130" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="C130" s="2">
         <v>44186</v>
       </c>
       <c r="D130" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3569,13 +3464,13 @@
         <v>58</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C131" s="2">
         <v>44312</v>
       </c>
       <c r="D131" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3583,13 +3478,13 @@
         <v>59</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="C132" s="2">
         <v>44148</v>
       </c>
       <c r="D132" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3597,13 +3492,13 @@
         <v>59</v>
       </c>
       <c r="B133" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="C133" s="2">
         <v>44148</v>
       </c>
       <c r="D133" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3611,13 +3506,13 @@
         <v>59</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C134" s="2">
         <v>44175</v>
       </c>
       <c r="D134" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3625,13 +3520,13 @@
         <v>59</v>
       </c>
       <c r="B135" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="C135" s="2">
         <v>44210</v>
       </c>
       <c r="D135" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3639,13 +3534,13 @@
         <v>59</v>
       </c>
       <c r="B136" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="C136" s="2">
         <v>44210</v>
       </c>
       <c r="D136" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3653,13 +3548,13 @@
         <v>59</v>
       </c>
       <c r="B137" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="C137" s="2">
         <v>44231</v>
       </c>
       <c r="D137" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3667,13 +3562,13 @@
         <v>59</v>
       </c>
       <c r="B138" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C138" s="2">
         <v>44231</v>
       </c>
       <c r="D138" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3681,13 +3576,13 @@
         <v>59</v>
       </c>
       <c r="B139" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="C139" s="2">
         <v>44232</v>
       </c>
       <c r="D139" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3695,13 +3590,13 @@
         <v>59</v>
       </c>
       <c r="B140" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C140" s="2">
         <v>44245</v>
       </c>
       <c r="D140" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3709,13 +3604,13 @@
         <v>60</v>
       </c>
       <c r="B141" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="C141" s="2">
         <v>44183</v>
       </c>
       <c r="D141" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3723,13 +3618,13 @@
         <v>60</v>
       </c>
       <c r="B142" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="C142" s="2">
         <v>44253</v>
       </c>
       <c r="D142" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3737,13 +3632,13 @@
         <v>60</v>
       </c>
       <c r="B143" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C143" s="2">
         <v>44320</v>
       </c>
       <c r="D143" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3751,13 +3646,13 @@
         <v>61</v>
       </c>
       <c r="B144" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="C144" s="2">
         <v>44180</v>
       </c>
       <c r="D144" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3765,13 +3660,13 @@
         <v>61</v>
       </c>
       <c r="B145" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C145" s="2">
         <v>44180</v>
       </c>
       <c r="D145" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3779,13 +3674,13 @@
         <v>61</v>
       </c>
       <c r="B146" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C146" s="2">
         <v>44180</v>
       </c>
       <c r="D146" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3793,13 +3688,13 @@
         <v>62</v>
       </c>
       <c r="B147" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C147" s="2">
         <v>44251</v>
       </c>
       <c r="D147" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3807,13 +3702,13 @@
         <v>62</v>
       </c>
       <c r="B148" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C148" s="2">
         <v>44251</v>
       </c>
       <c r="D148" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3821,13 +3716,13 @@
         <v>62</v>
       </c>
       <c r="B149" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C149" s="2">
         <v>44251</v>
       </c>
       <c r="D149" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3835,13 +3730,13 @@
         <v>62</v>
       </c>
       <c r="B150" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="C150" s="2">
         <v>44320</v>
       </c>
       <c r="D150" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3849,13 +3744,13 @@
         <v>4</v>
       </c>
       <c r="B151" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="C151" s="2">
         <v>43896</v>
       </c>
       <c r="D151" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3863,13 +3758,13 @@
         <v>4</v>
       </c>
       <c r="B152" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="C152" s="2">
         <v>43956</v>
       </c>
       <c r="D152" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3877,13 +3772,13 @@
         <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="C153" s="2">
         <v>43875</v>
       </c>
       <c r="D153" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3891,10 +3786,10 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="D154" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3902,10 +3797,10 @@
         <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="D155" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3913,13 +3808,13 @@
         <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C156" s="2">
         <v>43810</v>
       </c>
       <c r="D156" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3927,13 +3822,13 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C157" s="2">
         <v>43882</v>
       </c>
       <c r="D157" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3941,13 +3836,13 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C158" s="2">
         <v>43882</v>
       </c>
       <c r="D158" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3955,13 +3850,13 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="C159" s="2">
         <v>43866</v>
       </c>
       <c r="D159" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3969,13 +3864,13 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C160" s="2">
         <v>43866</v>
       </c>
       <c r="D160" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3983,209 +3878,209 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="C161" s="2">
         <v>43955</v>
       </c>
       <c r="D161" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="C162" s="2">
         <v>43861</v>
       </c>
       <c r="D162" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C163" s="2">
         <v>43889</v>
       </c>
       <c r="D163" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C164" s="2">
         <v>43889</v>
       </c>
       <c r="D164" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C165" s="2">
         <v>43889</v>
       </c>
       <c r="D165" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B166" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="C166" s="2">
         <v>43853</v>
       </c>
       <c r="D166" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B167" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="C167" s="2">
-        <v>43867</v>
+        <v>43840</v>
       </c>
       <c r="D167" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="B168" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="C168" s="2">
-        <v>43872</v>
+        <v>43843</v>
       </c>
       <c r="D168" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B169" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="C169" s="2">
-        <v>43872</v>
+        <v>43867</v>
       </c>
       <c r="D169" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="B170" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="C170" s="2">
         <v>43872</v>
       </c>
       <c r="D170" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="C171" s="2">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="D171" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B172" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="C172" s="2">
-        <v>43860</v>
+        <v>43872</v>
       </c>
       <c r="D172" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B173" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C173" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="D173" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B174" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="C174" s="2">
-        <v>43843</v>
+        <v>43860</v>
       </c>
       <c r="D174" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B175" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C175" s="2">
         <v>43875</v>
       </c>
       <c r="D175" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,13 +4088,13 @@
         <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="C176" s="2">
         <v>43770</v>
       </c>
       <c r="D176" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4207,13 +4102,13 @@
         <v>17</v>
       </c>
       <c r="B177" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="C177" s="2">
         <v>43770</v>
       </c>
       <c r="D177" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4221,13 +4116,13 @@
         <v>17</v>
       </c>
       <c r="B178" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="C178" s="2">
         <v>43770</v>
       </c>
       <c r="D178" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4235,13 +4130,13 @@
         <v>17</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C179" s="2">
         <v>43802</v>
       </c>
       <c r="D179" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4249,55 +4144,55 @@
         <v>17</v>
       </c>
       <c r="B180" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="C180" s="2">
         <v>43802</v>
       </c>
       <c r="D180" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B181" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="C181" s="2">
         <v>43753</v>
       </c>
       <c r="D181" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B182" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="C182" s="2">
         <v>43768</v>
       </c>
       <c r="D182" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B183" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="C183" s="2">
         <v>43768</v>
       </c>
       <c r="D183" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4305,13 +4200,13 @@
         <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="C184" s="2">
         <v>43790</v>
       </c>
       <c r="D184" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4319,13 +4214,13 @@
         <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="C185" s="2">
         <v>43875</v>
       </c>
       <c r="D185" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4333,13 +4228,13 @@
         <v>19</v>
       </c>
       <c r="B186" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="C186" s="2">
         <v>43879</v>
       </c>
       <c r="D186" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4347,13 +4242,13 @@
         <v>21</v>
       </c>
       <c r="B187" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="C187" s="2">
         <v>43844</v>
       </c>
       <c r="D187" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4361,771 +4256,771 @@
         <v>21</v>
       </c>
       <c r="B188" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="C188" s="2">
         <v>43962</v>
       </c>
       <c r="D188" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B189" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="C189" s="2">
         <v>43816</v>
       </c>
       <c r="D189" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B190" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="C190" s="2">
         <v>43853</v>
       </c>
       <c r="D190" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B191" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="C191" s="2">
         <v>43892</v>
       </c>
       <c r="D191" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B192" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="C192" s="2">
         <v>43906</v>
       </c>
       <c r="D192" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="B193" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="C193" s="2">
         <v>43816</v>
       </c>
       <c r="D193" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B194" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="C194" s="2">
         <v>43809</v>
       </c>
       <c r="D194" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B195" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="C195" s="2">
         <v>43873</v>
       </c>
       <c r="D195" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B196" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="C196" s="2">
         <v>43832</v>
       </c>
       <c r="D196" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B197" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="C197" s="2">
         <v>43832</v>
       </c>
       <c r="D197" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B198" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="C198" s="2">
         <v>43957</v>
       </c>
       <c r="D198" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="B199" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="C199" s="2">
-        <v>43857</v>
+        <v>43783</v>
       </c>
       <c r="D199" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="B200" t="s">
-        <v>292</v>
+        <v>257</v>
+      </c>
+      <c r="C200" s="2">
+        <v>43854</v>
       </c>
       <c r="D200" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B201" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C201" s="2">
-        <v>43789</v>
+        <v>43854</v>
       </c>
       <c r="D201" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B202" t="s">
-        <v>294</v>
-      </c>
-      <c r="C202" s="2">
-        <v>43783</v>
+        <v>219</v>
       </c>
       <c r="D202" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B203" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="C203" s="2">
-        <v>43854</v>
+        <v>43886</v>
       </c>
       <c r="D203" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B204" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="C204" s="2">
-        <v>43854</v>
+        <v>43886</v>
       </c>
       <c r="D204" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B205" t="s">
-        <v>254</v>
+        <v>261</v>
+      </c>
+      <c r="C205" s="2">
+        <v>43950</v>
       </c>
       <c r="D205" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B206" t="s">
-        <v>297</v>
-      </c>
-      <c r="C206" s="2">
-        <v>43886</v>
+        <v>131</v>
       </c>
       <c r="D206" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="B207" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C207" s="2">
-        <v>43886</v>
+        <v>43865</v>
       </c>
       <c r="D207" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="B208" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="C208" s="2">
-        <v>43950</v>
+        <v>43857</v>
       </c>
       <c r="D208" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B209" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C209" s="2">
-        <v>43753</v>
+        <v>43789</v>
       </c>
       <c r="D209" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B210" t="s">
-        <v>301</v>
-      </c>
-      <c r="C210" s="2">
-        <v>43758</v>
+        <v>265</v>
       </c>
       <c r="D210" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B211" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="C211" s="2">
-        <v>43789</v>
+        <v>43753</v>
       </c>
       <c r="D211" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="B212" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="C212" s="2">
-        <v>43795</v>
+        <v>43758</v>
       </c>
       <c r="D212" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B213" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="C213" s="2">
-        <v>43759</v>
+        <v>43789</v>
       </c>
       <c r="D213" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B214" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="C214" s="2">
-        <v>43753</v>
+        <v>43795</v>
       </c>
       <c r="D214" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B215" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="C215" s="2">
-        <v>43753</v>
+        <v>43759</v>
       </c>
       <c r="D215" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B216" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="C216" s="2">
-        <v>43861</v>
+        <v>43753</v>
       </c>
       <c r="D216" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B217" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="C217" s="2">
-        <v>43818</v>
+        <v>43753</v>
       </c>
       <c r="D217" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B218" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="C218" s="2">
-        <v>43949</v>
+        <v>43861</v>
       </c>
       <c r="D218" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B219" t="s">
-        <v>169</v>
+        <v>273</v>
+      </c>
+      <c r="C219" s="2">
+        <v>43818</v>
       </c>
       <c r="D219" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B220" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="C220" s="2">
-        <v>43774</v>
+        <v>43949</v>
       </c>
       <c r="D220" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B221" t="s">
-        <v>309</v>
-      </c>
-      <c r="C221" s="2">
-        <v>43774</v>
+        <v>130</v>
       </c>
       <c r="D221" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B222" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="C222" s="2">
-        <v>43881</v>
+        <v>43774</v>
       </c>
       <c r="D222" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B223" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="C223" s="2">
-        <v>43804</v>
+        <v>43774</v>
       </c>
       <c r="D223" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B224" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="C224" s="2">
-        <v>43903</v>
+        <v>43881</v>
       </c>
       <c r="D224" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B225" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="C225" s="2">
-        <v>43921</v>
+        <v>43804</v>
       </c>
       <c r="D225" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B226" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="C226" s="2">
-        <v>43784</v>
+        <v>43903</v>
       </c>
       <c r="D226" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B227" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C227" s="2">
-        <v>43812</v>
+        <v>43921</v>
       </c>
       <c r="D227" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B228" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="C228" s="2">
-        <v>43808</v>
+        <v>43784</v>
       </c>
       <c r="D228" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B229" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="C229" s="2">
-        <v>43776</v>
+        <v>43812</v>
       </c>
       <c r="D229" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B230" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="C230" s="2">
-        <v>43796</v>
+        <v>43808</v>
       </c>
       <c r="D230" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B231" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="C231" s="2">
-        <v>43844</v>
+        <v>43776</v>
       </c>
       <c r="D231" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B232" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="C232" s="2">
-        <v>43808</v>
+        <v>43796</v>
       </c>
       <c r="D232" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B233" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C233" s="2">
-        <v>43816</v>
+        <v>43844</v>
       </c>
       <c r="D233" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B234" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="C234" s="2">
-        <v>43791</v>
+        <v>43808</v>
       </c>
       <c r="D234" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B235" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="C235" s="2">
-        <v>43865</v>
+        <v>43816</v>
       </c>
       <c r="D235" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B236" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="C236" s="2">
-        <v>43892</v>
+        <v>43791</v>
       </c>
       <c r="D236" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B237" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="C237" s="2">
-        <v>43892</v>
+        <v>43865</v>
       </c>
       <c r="D237" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B238" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="C238" s="2">
-        <v>43755</v>
+        <v>43892</v>
       </c>
       <c r="D238" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B239" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="C239" s="2">
-        <v>43762</v>
+        <v>43892</v>
       </c>
       <c r="D239" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B240" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="C240" s="2">
-        <v>43777</v>
+        <v>43755</v>
       </c>
       <c r="D240" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="B241" t="s">
-        <v>170</v>
+        <v>292</v>
+      </c>
+      <c r="C241" s="2">
+        <v>43762</v>
       </c>
       <c r="D241" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B242" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="C242" s="2">
-        <v>43865</v>
+        <v>43777</v>
       </c>
       <c r="D242" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B243" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C243" s="2">
         <v>43794</v>
       </c>
       <c r="D243" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5133,13 +5028,13 @@
         <v>54</v>
       </c>
       <c r="B244" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="C244" s="2">
         <v>43754</v>
       </c>
       <c r="D244" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5147,69 +5042,69 @@
         <v>54</v>
       </c>
       <c r="B245" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="C245" s="2">
         <v>43867</v>
       </c>
       <c r="D245" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B246" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="C246" s="2">
         <v>43929</v>
       </c>
       <c r="D246" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B247" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C247" s="2">
         <v>43819</v>
       </c>
       <c r="D247" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B248" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C248" s="2">
         <v>43819</v>
       </c>
       <c r="D248" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B249" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="C249" s="2">
         <v>43819</v>
       </c>
       <c r="D249" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5217,13 +5112,13 @@
         <v>58</v>
       </c>
       <c r="B250" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="C250" s="2">
         <v>43753</v>
       </c>
       <c r="D250" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5231,13 +5126,13 @@
         <v>58</v>
       </c>
       <c r="B251" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="C251" s="2">
         <v>43795</v>
       </c>
       <c r="D251" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5245,13 +5140,13 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="C252" s="2">
         <v>43802</v>
       </c>
       <c r="D252" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5259,13 +5154,13 @@
         <v>58</v>
       </c>
       <c r="B253" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="C253" s="2">
         <v>43859</v>
       </c>
       <c r="D253" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5273,13 +5168,13 @@
         <v>59</v>
       </c>
       <c r="B254" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C254" s="2">
         <v>43784</v>
       </c>
       <c r="D254" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5287,13 +5182,13 @@
         <v>59</v>
       </c>
       <c r="B255" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="C255" s="2">
         <v>43805</v>
       </c>
       <c r="D255" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5301,13 +5196,13 @@
         <v>59</v>
       </c>
       <c r="B256" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="C256" s="2">
         <v>43840</v>
       </c>
       <c r="D256" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,13 +5210,13 @@
         <v>59</v>
       </c>
       <c r="B257" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="C257" s="2">
         <v>43868</v>
       </c>
       <c r="D257" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5329,52 +5224,52 @@
         <v>59</v>
       </c>
       <c r="B258" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="D258" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B259" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C259" s="2">
         <v>43811</v>
       </c>
       <c r="D259" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B260" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="C260" s="2">
         <v>43811</v>
       </c>
       <c r="D260" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B261" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C261" s="2">
         <v>43811</v>
       </c>
       <c r="D261" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5382,136 +5277,136 @@
         <v>62</v>
       </c>
       <c r="B262" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="C262" s="2">
         <v>43888</v>
       </c>
       <c r="D262" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B263" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="C263" s="2">
-        <v>43468</v>
+        <v>43444</v>
       </c>
       <c r="D263" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B264" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
       <c r="C264" s="2">
-        <v>43514</v>
+        <v>43444</v>
       </c>
       <c r="D264" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>348</v>
+        <v>192</v>
       </c>
       <c r="C265" s="2">
-        <v>43514</v>
+        <v>43497</v>
       </c>
       <c r="D265" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B266" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="C266" s="2">
-        <v>43472</v>
+        <v>43468</v>
       </c>
       <c r="D266" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B267" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C267" s="2">
-        <v>43489</v>
+        <v>43514</v>
       </c>
       <c r="D267" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B268" t="s">
-        <v>169</v>
+        <v>313</v>
+      </c>
+      <c r="C268" s="2">
+        <v>43514</v>
       </c>
       <c r="D268" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="C269" s="2">
-        <v>43518</v>
+        <v>43472</v>
       </c>
       <c r="D269" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B270" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="C270" s="2">
-        <v>43518</v>
+        <v>43489</v>
       </c>
       <c r="D270" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B271" t="s">
-        <v>352</v>
-      </c>
-      <c r="C271" s="2">
-        <v>43518</v>
+        <v>130</v>
       </c>
       <c r="D271" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5519,13 +5414,13 @@
         <v>8</v>
       </c>
       <c r="B272" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="C272" s="2">
         <v>43518</v>
       </c>
       <c r="D272" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5533,125 +5428,125 @@
         <v>8</v>
       </c>
       <c r="B273" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="C273" s="2">
-        <v>43587</v>
+        <v>43518</v>
       </c>
       <c r="D273" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B274" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="C274" s="2">
-        <v>43456</v>
+        <v>43518</v>
       </c>
       <c r="D274" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B275" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="C275" s="2">
-        <v>43456</v>
+        <v>43518</v>
       </c>
       <c r="D275" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B276" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="C276" s="2">
-        <v>43509</v>
+        <v>43587</v>
       </c>
       <c r="D276" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="C277" s="2">
-        <v>43444</v>
+        <v>43456</v>
       </c>
       <c r="D277" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="C278" s="2">
-        <v>43444</v>
+        <v>43456</v>
       </c>
       <c r="D278" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="C279" s="2">
-        <v>43497</v>
+        <v>43509</v>
       </c>
       <c r="D279" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B280" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="C280" s="2">
         <v>43450</v>
       </c>
       <c r="D280" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B281" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="C281" s="2">
         <v>43504</v>
       </c>
       <c r="D281" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5659,223 +5554,223 @@
         <v>12</v>
       </c>
       <c r="B282" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="C282" s="2">
         <v>43525</v>
       </c>
       <c r="D282" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B283" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="C283" s="2">
         <v>43481</v>
       </c>
       <c r="D283" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="B284" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="C284" s="2">
         <v>43483</v>
       </c>
       <c r="D284" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="B285" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="C285" s="2">
         <v>43483</v>
       </c>
       <c r="D285" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="B286" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="C286" s="2">
         <v>43483</v>
       </c>
       <c r="D286" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B287" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="C287" s="2">
         <v>43509</v>
       </c>
       <c r="D287" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B288" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="C288" s="2">
         <v>43487</v>
       </c>
       <c r="D288" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B289" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="C289" s="2">
         <v>43487</v>
       </c>
       <c r="D289" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B290" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="C290" s="2">
         <v>43509</v>
       </c>
       <c r="D290" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B291" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="C291" s="2">
         <v>43509</v>
       </c>
       <c r="D291" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B292" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="C292" s="2">
         <v>43509</v>
       </c>
       <c r="D292" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B293" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="C293" s="2">
         <v>43522</v>
       </c>
       <c r="D293" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B294" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="C294" s="2">
         <v>43487</v>
       </c>
       <c r="D294" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B295" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="C295" s="2">
         <v>43504</v>
       </c>
       <c r="D295" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B296" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="C296" s="2">
         <v>43436</v>
       </c>
       <c r="D296" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B297" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="C297" s="2">
         <v>43482</v>
       </c>
       <c r="D297" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5883,13 +5778,13 @@
         <v>17</v>
       </c>
       <c r="B298" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C298" s="2">
         <v>43473</v>
       </c>
       <c r="D298" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5897,13 +5792,13 @@
         <v>17</v>
       </c>
       <c r="B299" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C299" s="2">
         <v>43473</v>
       </c>
       <c r="D299" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5911,13 +5806,13 @@
         <v>17</v>
       </c>
       <c r="B300" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C300" s="2">
         <v>43473</v>
       </c>
       <c r="D300" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5925,13 +5820,13 @@
         <v>17</v>
       </c>
       <c r="B301" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C301" s="2">
         <v>43473</v>
       </c>
       <c r="D301" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5939,13 +5834,13 @@
         <v>17</v>
       </c>
       <c r="B302" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C302" s="2">
         <v>43473</v>
       </c>
       <c r="D302" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5953,676 +5848,676 @@
         <v>17</v>
       </c>
       <c r="B303" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C303" s="2">
         <v>43473</v>
       </c>
       <c r="D303" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B304" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C304" s="2">
         <v>43474</v>
       </c>
       <c r="D304" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B305" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="C305" s="2">
         <v>43510</v>
       </c>
       <c r="D305" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="B306" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C306" s="2">
-        <v>43597</v>
+        <v>43530</v>
       </c>
       <c r="D306" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B307" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="C307" s="2">
-        <v>43530</v>
+        <v>43593</v>
       </c>
       <c r="D307" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B308" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="C308" s="2">
-        <v>43593</v>
+        <v>43597</v>
       </c>
       <c r="D308" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="B309" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="C309" s="2">
         <v>43400</v>
       </c>
       <c r="D309" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="B310" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="C310" s="2">
         <v>43401</v>
       </c>
       <c r="D310" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="B311" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="D311" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="B312" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="D312" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="B313" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="C313" s="2">
-        <v>43476</v>
+        <v>43441</v>
       </c>
       <c r="D313" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B314" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="C314" s="2">
         <v>43441</v>
       </c>
       <c r="D314" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B315" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="C315" s="2">
         <v>43441</v>
       </c>
       <c r="D315" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B316" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="C316" s="2">
-        <v>43441</v>
+        <v>43476</v>
       </c>
       <c r="D316" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B317" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="C317" s="2">
         <v>43511</v>
       </c>
       <c r="D317" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B318" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="C318" s="2">
         <v>43511</v>
       </c>
       <c r="D318" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B319" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="C319" s="2">
         <v>43438</v>
       </c>
       <c r="D319" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="B320" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="C320" s="2">
         <v>43388</v>
       </c>
       <c r="D320" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="B321" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="C321" s="2">
         <v>43388</v>
       </c>
       <c r="D321" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="B322" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="C322" s="2">
-        <v>43408</v>
+        <v>43419</v>
       </c>
       <c r="D322" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B323" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="C323" s="2">
-        <v>43433</v>
+        <v>43448</v>
       </c>
       <c r="D323" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="B324" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="C324" s="2">
-        <v>43500</v>
+        <v>43517</v>
       </c>
       <c r="D324" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="B325" t="s">
-        <v>386</v>
+        <v>316</v>
       </c>
       <c r="C325" s="2">
-        <v>43500</v>
+        <v>43518</v>
       </c>
       <c r="D325" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B326" t="s">
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="C326" s="2">
-        <v>43395</v>
+        <v>43518</v>
       </c>
       <c r="D326" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="B327" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="C327" s="2">
-        <v>43395</v>
+        <v>43505</v>
       </c>
       <c r="D327" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="B328" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="C328" s="2">
-        <v>43446</v>
+        <v>43507</v>
       </c>
       <c r="D328" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="B329" t="s">
-        <v>389</v>
-      </c>
-      <c r="C329" s="2">
-        <v>43502</v>
+        <v>219</v>
       </c>
       <c r="D329" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="B330" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="C330" s="2">
-        <v>43507</v>
+        <v>43408</v>
       </c>
       <c r="D330" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="B331" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="C331" s="2">
-        <v>43508</v>
+        <v>43500</v>
       </c>
       <c r="D331" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B332" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="C332" s="2">
-        <v>43419</v>
+        <v>43500</v>
       </c>
       <c r="D332" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="B333" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="C333" s="2">
-        <v>43448</v>
+        <v>43395</v>
       </c>
       <c r="D333" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B334" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="C334" s="2">
-        <v>43517</v>
+        <v>43395</v>
       </c>
       <c r="D334" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B335" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C335" s="2">
-        <v>43518</v>
+        <v>43502</v>
       </c>
       <c r="D335" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B336" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C336" s="2">
-        <v>43518</v>
+        <v>43502</v>
       </c>
       <c r="D336" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B337" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="C337" s="2">
-        <v>43505</v>
+        <v>43433</v>
       </c>
       <c r="D337" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B338" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="C338" s="2">
-        <v>43507</v>
+        <v>43446</v>
       </c>
       <c r="D338" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B339" t="s">
-        <v>254</v>
+        <v>361</v>
+      </c>
+      <c r="C339" s="2">
+        <v>43502</v>
       </c>
       <c r="D339" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B340" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="C340" s="2">
-        <v>43448</v>
+        <v>43507</v>
       </c>
       <c r="D340" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B341" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="C341" s="2">
-        <v>43417</v>
+        <v>43508</v>
       </c>
       <c r="D341" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="B342" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="C342" s="2">
-        <v>43430</v>
+        <v>43448</v>
       </c>
       <c r="D342" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B343" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="C343" s="2">
-        <v>43445</v>
+        <v>43417</v>
       </c>
       <c r="D343" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B344" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="C344" s="2">
-        <v>43497</v>
+        <v>43430</v>
       </c>
       <c r="D344" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B345" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="C345" s="2">
-        <v>43511</v>
+        <v>43445</v>
       </c>
       <c r="D345" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B346" t="s">
-        <v>400</v>
+        <v>105</v>
       </c>
       <c r="C346" s="2">
-        <v>43403</v>
+        <v>43497</v>
       </c>
       <c r="D346" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="B347" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="C347" s="2">
-        <v>43453</v>
+        <v>43511</v>
       </c>
       <c r="D347" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="B348" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="C348" s="2">
-        <v>43494</v>
+        <v>43403</v>
       </c>
       <c r="D348" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="B349" t="s">
-        <v>401</v>
+        <v>273</v>
       </c>
       <c r="C349" s="2">
-        <v>43494</v>
+        <v>43453</v>
       </c>
       <c r="D349" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="B350" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="C350" s="2">
-        <v>43529</v>
+        <v>43494</v>
       </c>
       <c r="D350" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="B351" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="C351" s="2">
-        <v>43536</v>
+        <v>43494</v>
       </c>
       <c r="D351" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -6630,256 +6525,262 @@
         <v>43</v>
       </c>
       <c r="B352" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C352" s="2">
-        <v>43413</v>
+        <v>43529</v>
       </c>
       <c r="D352" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B353" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="C353" s="2">
-        <v>43469</v>
+        <v>43536</v>
       </c>
       <c r="D353" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B354" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C354" s="2">
-        <v>43592</v>
+        <v>43413</v>
       </c>
       <c r="D354" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B355" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="C355" s="2">
-        <v>43439</v>
+        <v>43469</v>
       </c>
       <c r="D355" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B356" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="C356" s="2">
-        <v>43476</v>
+        <v>43592</v>
       </c>
       <c r="D356" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B357" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C357" s="2">
-        <v>43476</v>
+        <v>43439</v>
       </c>
       <c r="D357" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B358" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="C358" s="2">
-        <v>43504</v>
+        <v>43476</v>
       </c>
       <c r="D358" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B359" t="s">
-        <v>375</v>
+        <v>343</v>
+      </c>
+      <c r="C359" s="2">
+        <v>43476</v>
       </c>
       <c r="D359" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B360" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C360" s="2">
-        <v>43434</v>
+        <v>43504</v>
       </c>
       <c r="D360" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B361" t="s">
-        <v>411</v>
-      </c>
-      <c r="C361" s="2">
-        <v>43472</v>
+        <v>340</v>
       </c>
       <c r="D361" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B362" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="C362" s="2">
-        <v>43515</v>
+        <v>43434</v>
       </c>
       <c r="D362" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B363" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="C363" s="2">
-        <v>43515</v>
+        <v>43472</v>
       </c>
       <c r="D363" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B364" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="C364" s="2">
-        <v>43530</v>
+        <v>43515</v>
       </c>
       <c r="D364" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B365" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="C365" s="2">
-        <v>43530</v>
+        <v>43515</v>
       </c>
       <c r="D365" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B366" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="C366" s="2">
         <v>43530</v>
       </c>
       <c r="D366" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B367" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C367" s="2">
         <v>43530</v>
       </c>
       <c r="D367" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B368" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="C368" s="2">
-        <v>43391</v>
+        <v>43530</v>
       </c>
       <c r="D368" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B369" t="s">
-        <v>292</v>
+        <v>380</v>
+      </c>
+      <c r="C369" s="2">
+        <v>43530</v>
       </c>
       <c r="D369" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B370" t="s">
-        <v>169</v>
+        <v>382</v>
+      </c>
+      <c r="C370" s="2">
+        <v>43391</v>
       </c>
       <c r="D370" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -6887,41 +6788,35 @@
         <v>52</v>
       </c>
       <c r="B371" t="s">
-        <v>416</v>
-      </c>
-      <c r="C371" s="2">
-        <v>43502</v>
+        <v>265</v>
       </c>
       <c r="D371" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B372" t="s">
-        <v>417</v>
-      </c>
-      <c r="C372" s="2">
-        <v>43502</v>
+        <v>130</v>
       </c>
       <c r="D372" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="B373" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="C373" s="2">
         <v>43425</v>
       </c>
       <c r="D373" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -6929,13 +6824,13 @@
         <v>54</v>
       </c>
       <c r="B374" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="C374" s="2">
         <v>43397</v>
       </c>
       <c r="D374" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -6943,13 +6838,13 @@
         <v>54</v>
       </c>
       <c r="B375" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="C375" s="2">
         <v>43397</v>
       </c>
       <c r="D375" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -6957,13 +6852,13 @@
         <v>55</v>
       </c>
       <c r="B376" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="C376" s="2">
         <v>43479</v>
       </c>
       <c r="D376" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -6971,13 +6866,13 @@
         <v>55</v>
       </c>
       <c r="B377" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="C377" s="2">
         <v>43479</v>
       </c>
       <c r="D377" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -6985,13 +6880,13 @@
         <v>55</v>
       </c>
       <c r="B378" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="C378" s="2">
         <v>43479</v>
       </c>
       <c r="D378" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -6999,13 +6894,13 @@
         <v>55</v>
       </c>
       <c r="B379" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="C379" s="2">
         <v>43493</v>
       </c>
       <c r="D379" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7013,13 +6908,13 @@
         <v>55</v>
       </c>
       <c r="B380" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="C380" s="2">
         <v>43514</v>
       </c>
       <c r="D380" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7027,13 +6922,13 @@
         <v>56</v>
       </c>
       <c r="B381" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="C381" s="2">
         <v>43453</v>
       </c>
       <c r="D381" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7041,13 +6936,13 @@
         <v>56</v>
       </c>
       <c r="B382" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="C382" s="2">
         <v>43454</v>
       </c>
       <c r="D382" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7055,13 +6950,13 @@
         <v>56</v>
       </c>
       <c r="B383" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="C383" s="2">
         <v>43454</v>
       </c>
       <c r="D383" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -7069,13 +6964,13 @@
         <v>56</v>
       </c>
       <c r="B384" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="C384" s="2">
         <v>43509</v>
       </c>
       <c r="D384" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -7083,13 +6978,13 @@
         <v>57</v>
       </c>
       <c r="B385" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C385" s="2">
         <v>43441</v>
       </c>
       <c r="D385" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7097,13 +6992,13 @@
         <v>57</v>
       </c>
       <c r="B386" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="C386" s="2">
         <v>43511</v>
       </c>
       <c r="D386" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7111,69 +7006,69 @@
         <v>57</v>
       </c>
       <c r="B387" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="C387" s="2">
         <v>43511</v>
       </c>
       <c r="D387" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B388" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="C388" s="2">
         <v>43445</v>
       </c>
       <c r="D388" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B389" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="C389" s="2">
         <v>43445</v>
       </c>
       <c r="D389" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B390" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="C390" s="2">
         <v>43497</v>
       </c>
       <c r="D390" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B391" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="C391" s="2">
         <v>43585</v>
       </c>
       <c r="D391" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7181,13 +7076,13 @@
         <v>59</v>
       </c>
       <c r="B392" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="C392" s="2">
         <v>43416</v>
       </c>
       <c r="D392" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7195,13 +7090,13 @@
         <v>59</v>
       </c>
       <c r="B393" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="C393" s="2">
         <v>43416</v>
       </c>
       <c r="D393" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -7209,13 +7104,13 @@
         <v>59</v>
       </c>
       <c r="B394" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="C394" s="2">
         <v>43416</v>
       </c>
       <c r="D394" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -7223,13 +7118,13 @@
         <v>59</v>
       </c>
       <c r="B395" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="C395" s="2">
         <v>43477</v>
       </c>
       <c r="D395" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7237,13 +7132,13 @@
         <v>59</v>
       </c>
       <c r="B396" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="C396" s="2">
         <v>43477</v>
       </c>
       <c r="D396" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7251,13 +7146,13 @@
         <v>59</v>
       </c>
       <c r="B397" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="C397" s="2">
         <v>43490</v>
       </c>
       <c r="D397" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7265,13 +7160,13 @@
         <v>59</v>
       </c>
       <c r="B398" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="C398" s="2">
         <v>43503</v>
       </c>
       <c r="D398" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7279,13 +7174,13 @@
         <v>59</v>
       </c>
       <c r="B399" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="C399" s="2">
         <v>43503</v>
       </c>
       <c r="D399" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7293,125 +7188,125 @@
         <v>59</v>
       </c>
       <c r="B400" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="C400" s="2">
         <v>43503</v>
       </c>
       <c r="D400" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B401" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C401" s="2">
         <v>43444</v>
       </c>
       <c r="D401" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B402" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C402" s="2">
         <v>43444</v>
       </c>
       <c r="D402" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B403" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="C403" s="2">
         <v>43444</v>
       </c>
       <c r="D403" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B404" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="C404" s="2">
         <v>43444</v>
       </c>
       <c r="D404" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B405" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C405" s="2">
         <v>43444</v>
       </c>
       <c r="D405" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B406" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C406" s="2">
         <v>43444</v>
       </c>
       <c r="D406" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B407" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C407" s="2">
         <v>43444</v>
       </c>
       <c r="D407" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B408" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="C408" s="2">
         <v>43593</v>
       </c>
       <c r="D408" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -7419,13 +7314,13 @@
         <v>62</v>
       </c>
       <c r="B409" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="C409" s="2">
         <v>43524</v>
       </c>
       <c r="D409" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -7433,13 +7328,13 @@
         <v>62</v>
       </c>
       <c r="B410" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="C410" s="2">
         <v>43524</v>
       </c>
       <c r="D410" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -7447,13 +7342,13 @@
         <v>62</v>
       </c>
       <c r="B411" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="C411" s="2">
         <v>43524</v>
       </c>
       <c r="D411" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -7461,13 +7356,13 @@
         <v>62</v>
       </c>
       <c r="B412" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="C412" s="2">
         <v>43524</v>
       </c>
       <c r="D412" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -7475,13 +7370,13 @@
         <v>62</v>
       </c>
       <c r="B413" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C413" s="2">
         <v>43524</v>
       </c>
       <c r="D413" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -7489,13 +7384,13 @@
         <v>62</v>
       </c>
       <c r="B414" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C414" s="2">
         <v>43524</v>
       </c>
       <c r="D414" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -7503,13 +7398,13 @@
         <v>62</v>
       </c>
       <c r="B415" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C415" s="2">
         <v>43524</v>
       </c>
       <c r="D415" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
